--- a/Data Input Sheets/Function Code Sheet.xlsx
+++ b/Data Input Sheets/Function Code Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D41A88D8-50B1-4E51-A9C7-3EEF4F749073}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{24759D0E-281A-486F-B7CF-78DD77EB78A6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B2256154-6970-4A35-B49E-7723780E8DA7}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A51"/>
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Input Sheets/Function Code Sheet.xlsx
+++ b/Data Input Sheets/Function Code Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{24759D0E-281A-486F-B7CF-78DD77EB78A6}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3074E7CA-C254-465C-9F00-97996788F261}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B2256154-6970-4A35-B49E-7723780E8DA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>New Func Code</t>
   </si>
@@ -175,6 +175,51 @@
   </si>
   <si>
     <t>Let there be Light</t>
+  </si>
+  <si>
+    <t>Jelly Slime</t>
+  </si>
+  <si>
+    <t>Ragnorok</t>
+  </si>
+  <si>
+    <t>Consume</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>Firework Flare</t>
+  </si>
+  <si>
+    <t>Formidable Wall</t>
+  </si>
+  <si>
+    <t>Effect?</t>
+  </si>
+  <si>
+    <t>Protect with stat boost</t>
+  </si>
+  <si>
+    <t>Rising Ashes</t>
+  </si>
+  <si>
+    <t>Rest with boosts</t>
+  </si>
+  <si>
+    <t>Destroys enemy item?</t>
+  </si>
+  <si>
+    <t>Auto Poison</t>
+  </si>
+  <si>
+    <t>Auto Paralize</t>
+  </si>
+  <si>
+    <t>Poison and Confuse</t>
+  </si>
+  <si>
+    <t>High Recoil</t>
   </si>
 </sst>
 </file>
@@ -526,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C701D256-546A-4CB2-B5D0-D45898F4BB7C}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +582,10 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +595,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -558,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201</v>
       </c>
@@ -566,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>202</v>
       </c>
@@ -574,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>203</v>
       </c>
@@ -582,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>204</v>
       </c>
@@ -590,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>205</v>
       </c>
@@ -598,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>206</v>
       </c>
@@ -606,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>207</v>
       </c>
@@ -614,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>208</v>
       </c>
@@ -622,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>209</v>
       </c>
@@ -630,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>210</v>
       </c>
@@ -638,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>211</v>
       </c>
@@ -646,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>212</v>
       </c>
@@ -654,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>213</v>
       </c>
@@ -662,7 +711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>214</v>
       </c>
@@ -924,6 +973,108 @@
       </c>
       <c r="B48" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>317</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>318</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>321</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>322</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>323</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Function Code Sheet.xlsx
+++ b/Data Input Sheets/Function Code Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{3074E7CA-C254-465C-9F00-97996788F261}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{15AE76DD-C9AF-4ED0-A71A-6BDEA11C2548}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B2256154-6970-4A35-B49E-7723780E8DA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>New Func Code</t>
   </si>
@@ -220,6 +220,36 @@
   </si>
   <si>
     <t>High Recoil</t>
+  </si>
+  <si>
+    <t>Tempest?</t>
+  </si>
+  <si>
+    <t>Wind Shear?</t>
+  </si>
+  <si>
+    <t>Battering Ram?</t>
+  </si>
+  <si>
+    <t>Leaf Shield?</t>
+  </si>
+  <si>
+    <t>Asteroid Belt?</t>
+  </si>
+  <si>
+    <t>Asteroid Shot?</t>
+  </si>
+  <si>
+    <t>Depth Charge?</t>
+  </si>
+  <si>
+    <t>Jet Strike?</t>
+  </si>
+  <si>
+    <t>Prism Beam?</t>
+  </si>
+  <si>
+    <t>Dust Devil?</t>
   </si>
 </sst>
 </file>
@@ -571,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C701D256-546A-4CB2-B5D0-D45898F4BB7C}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,28 +1083,53 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>324</v>
+      <c r="B56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>327</v>
+      <c r="B57" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>328</v>
+      <c r="B58" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>329</v>
+      <c r="B59" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>330</v>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Function Code Sheet.xlsx
+++ b/Data Input Sheets/Function Code Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{15AE76DD-C9AF-4ED0-A71A-6BDEA11C2548}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="7CD7494C400E2C2E4BB01DD74AD9C8D30ED9B167" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{DA5D2445-D48C-498B-B92A-7FE36B1D4CBB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B2256154-6970-4A35-B49E-7723780E8DA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>New Func Code</t>
   </si>
@@ -225,31 +225,25 @@
     <t>Tempest?</t>
   </si>
   <si>
-    <t>Wind Shear?</t>
-  </si>
-  <si>
-    <t>Battering Ram?</t>
-  </si>
-  <si>
     <t>Leaf Shield?</t>
   </si>
   <si>
     <t>Asteroid Belt?</t>
   </si>
   <si>
-    <t>Asteroid Shot?</t>
-  </si>
-  <si>
     <t>Depth Charge?</t>
   </si>
   <si>
-    <t>Jet Strike?</t>
-  </si>
-  <si>
     <t>Prism Beam?</t>
   </si>
   <si>
     <t>Dust Devil?</t>
+  </si>
+  <si>
+    <t>FROZENSPACE</t>
+  </si>
+  <si>
+    <t>HARDENEDTIMESTRIKE</t>
   </si>
 </sst>
 </file>
@@ -601,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C701D256-546A-4CB2-B5D0-D45898F4BB7C}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,53 +1077,67 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>324</v>
+      </c>
       <c r="B56" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>325</v>
+      </c>
       <c r="B57" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>326</v>
+      </c>
       <c r="B58" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>327</v>
+      </c>
       <c r="B59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>328</v>
+      </c>
       <c r="B60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>329</v>
+      </c>
       <c r="B61" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>330</v>
+      </c>
       <c r="B62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>331</v>
+      </c>
       <c r="B63" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
